--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>790.745816029059</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N2">
-        <v>790.745816029059</v>
+        <v>2463.688598</v>
       </c>
       <c r="O2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q2">
-        <v>99764.89394877746</v>
+        <v>104240.1540180091</v>
       </c>
       <c r="R2">
-        <v>99764.89394877746</v>
+        <v>938161.3861620816</v>
       </c>
       <c r="S2">
-        <v>0.1692152603285216</v>
+        <v>0.1646978185763281</v>
       </c>
       <c r="T2">
-        <v>0.1692152603285216</v>
+        <v>0.1646978185763282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.7719676100087</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N3">
-        <v>74.7719676100087</v>
+        <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q3">
-        <v>9433.647662423811</v>
+        <v>9519.185572941582</v>
       </c>
       <c r="R3">
-        <v>9433.647662423811</v>
+        <v>85672.67015647425</v>
       </c>
       <c r="S3">
-        <v>0.01600079027662973</v>
+        <v>0.01504016483145136</v>
       </c>
       <c r="T3">
-        <v>0.01600079027662973</v>
+        <v>0.01504016483145136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84345566615913</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N4">
-        <v>3.84345566615913</v>
+        <v>12.20766</v>
       </c>
       <c r="O4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q4">
-        <v>484.9117619828195</v>
+        <v>516.5134748086733</v>
       </c>
       <c r="R4">
-        <v>484.9117619828195</v>
+        <v>4648.62127327806</v>
       </c>
       <c r="S4">
-        <v>0.0008224783968839215</v>
+        <v>0.0008160832393970832</v>
       </c>
       <c r="T4">
-        <v>0.0008224783968839215</v>
+        <v>0.0008160832393970834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>71.404267207475</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N5">
-        <v>71.404267207475</v>
+        <v>2.375885</v>
       </c>
       <c r="O5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q5">
-        <v>9008.759832859016</v>
+        <v>100.5251307044761</v>
       </c>
       <c r="R5">
-        <v>9008.759832859016</v>
+        <v>904.7261763402851</v>
       </c>
       <c r="S5">
-        <v>0.01528012089239582</v>
+        <v>0.0001588281396463318</v>
       </c>
       <c r="T5">
-        <v>0.01528012089239582</v>
+        <v>0.0001588281396463318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.019038018539</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>151.019038018539</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2409765964798859</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2409765964798859</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>790.745816029059</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N6">
-        <v>790.745816029059</v>
+        <v>248.563462</v>
       </c>
       <c r="O6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q6">
-        <v>119417.6724538931</v>
+        <v>10516.87034764186</v>
       </c>
       <c r="R6">
-        <v>119417.6724538931</v>
+        <v>94651.83312877675</v>
       </c>
       <c r="S6">
-        <v>0.2025491305838177</v>
+        <v>0.01661649122474854</v>
       </c>
       <c r="T6">
-        <v>0.2025491305838177</v>
+        <v>0.01661649122474855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.7719676100087</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N7">
-        <v>74.7719676100087</v>
+        <v>2463.688598</v>
       </c>
       <c r="O7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q7">
-        <v>11291.99061921687</v>
+        <v>125150.7996863236</v>
       </c>
       <c r="R7">
-        <v>11291.99061921687</v>
+        <v>1126357.197176912</v>
       </c>
       <c r="S7">
-        <v>0.01915280071604208</v>
+        <v>0.1977363128018735</v>
       </c>
       <c r="T7">
-        <v>0.01915280071604208</v>
+        <v>0.1977363128018735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.84345566615913</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N8">
-        <v>3.84345566615913</v>
+        <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q8">
-        <v>580.4349773702548</v>
+        <v>11428.7406617831</v>
       </c>
       <c r="R8">
-        <v>580.4349773702548</v>
+        <v>102858.6659560479</v>
       </c>
       <c r="S8">
-        <v>0.0009844991751298386</v>
+        <v>0.01805723210793668</v>
       </c>
       <c r="T8">
-        <v>0.0009844991751298386</v>
+        <v>0.01805723210793669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.404267207475</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N9">
-        <v>71.404267207475</v>
+        <v>12.20766</v>
       </c>
       <c r="O9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q9">
-        <v>10783.40374409158</v>
+        <v>620.1264285344333</v>
       </c>
       <c r="R9">
-        <v>10783.40374409158</v>
+        <v>5581.137856809901</v>
       </c>
       <c r="S9">
-        <v>0.01829016600489628</v>
+        <v>0.0009797900912877136</v>
       </c>
       <c r="T9">
-        <v>0.01829016600489628</v>
+        <v>0.0009797900912877138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>201.01781154489</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>201.01781154489</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>790.745816029059</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N10">
-        <v>790.745816029059</v>
+        <v>2.375885</v>
       </c>
       <c r="O10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q10">
-        <v>158953.9934264396</v>
+        <v>120.6905401738361</v>
       </c>
       <c r="R10">
-        <v>158953.9934264396</v>
+        <v>1086.214861564525</v>
       </c>
       <c r="S10">
-        <v>0.2696082791580285</v>
+        <v>0.0001906891722933887</v>
       </c>
       <c r="T10">
-        <v>0.2696082791580285</v>
+        <v>0.0001906891722933887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>201.01781154489</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>201.01781154489</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.3207581553524144</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.7719676100087</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N11">
-        <v>74.7719676100087</v>
+        <v>248.563462</v>
       </c>
       <c r="O11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q11">
-        <v>15030.49729386935</v>
+        <v>12626.56167965149</v>
       </c>
       <c r="R11">
-        <v>15030.49729386935</v>
+        <v>113639.0551168634</v>
       </c>
       <c r="S11">
-        <v>0.02549383266778293</v>
+        <v>0.01994977064595263</v>
       </c>
       <c r="T11">
-        <v>0.02549383266778293</v>
+        <v>0.01994977064595264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84345566615913</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N12">
-        <v>3.84345566615913</v>
+        <v>2463.688598</v>
       </c>
       <c r="O12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q12">
-        <v>772.6030467811157</v>
+        <v>169644.6111737872</v>
       </c>
       <c r="R12">
-        <v>772.6030467811157</v>
+        <v>1526801.500564084</v>
       </c>
       <c r="S12">
-        <v>0.001310443188149929</v>
+        <v>0.2680358414352021</v>
       </c>
       <c r="T12">
-        <v>0.001310443188149929</v>
+        <v>0.2680358414352021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.404267207475</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N13">
-        <v>71.404267207475</v>
+        <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q13">
-        <v>14353.52952901318</v>
+        <v>15491.9047312018</v>
       </c>
       <c r="R13">
-        <v>14353.52952901318</v>
+        <v>139427.1425808162</v>
       </c>
       <c r="S13">
-        <v>0.02434560033845304</v>
+        <v>0.02447696800582649</v>
       </c>
       <c r="T13">
-        <v>0.02434560033845304</v>
+        <v>0.0244769680058265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>133.020621672466</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>133.020621672466</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>790.745816029059</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N14">
-        <v>790.745816029059</v>
+        <v>12.20766</v>
       </c>
       <c r="O14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q14">
-        <v>105185.5000330869</v>
+        <v>840.5947633653801</v>
       </c>
       <c r="R14">
-        <v>105185.5000330869</v>
+        <v>7565.35287028842</v>
       </c>
       <c r="S14">
-        <v>0.1784093689311503</v>
+        <v>0.001328126623921186</v>
       </c>
       <c r="T14">
-        <v>0.1784093689311503</v>
+        <v>0.001328126623921186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>133.020621672466</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>133.020621672466</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>74.7719676100087</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N15">
-        <v>74.7719676100087</v>
+        <v>2.375885</v>
       </c>
       <c r="O15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q15">
-        <v>9946.21361515685</v>
+        <v>163.5986331007217</v>
       </c>
       <c r="R15">
-        <v>9946.21361515685</v>
+        <v>1472.387697906495</v>
       </c>
       <c r="S15">
-        <v>0.01687017406178957</v>
+        <v>0.000258483290317308</v>
       </c>
       <c r="T15">
-        <v>0.01687017406178957</v>
+        <v>0.000258483290317308</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>133.020621672466</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>133.020621672466</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.2122570577382063</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.84345566615913</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N16">
-        <v>3.84345566615913</v>
+        <v>248.563462</v>
       </c>
       <c r="O16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q16">
-        <v>511.2588620830495</v>
+        <v>17115.5769837274</v>
       </c>
       <c r="R16">
-        <v>511.2588620830495</v>
+        <v>154040.1928535466</v>
       </c>
       <c r="S16">
-        <v>0.0008671667759910161</v>
+        <v>0.02704234485693589</v>
       </c>
       <c r="T16">
-        <v>0.0008671667759910161</v>
+        <v>0.02704234485693589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.404267207475</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N17">
-        <v>71.404267207475</v>
+        <v>2463.688598</v>
       </c>
       <c r="O17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q17">
-        <v>9498.240014005203</v>
+        <v>116429.3650438305</v>
       </c>
       <c r="R17">
-        <v>9498.240014005203</v>
+        <v>1047864.285394475</v>
       </c>
       <c r="S17">
-        <v>0.01611034796927549</v>
+        <v>0.1839565820061336</v>
       </c>
       <c r="T17">
-        <v>0.01611034796927549</v>
+        <v>0.1839565820061336</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.4728331098994</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>15.4728331098994</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>790.745816029059</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N18">
-        <v>790.745816029059</v>
+        <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q18">
-        <v>12235.07804376884</v>
+        <v>10632.30136632859</v>
       </c>
       <c r="R18">
-        <v>12235.07804376884</v>
+        <v>95690.71229695731</v>
       </c>
       <c r="S18">
-        <v>0.02075240933327825</v>
+        <v>0.0167988704350715</v>
       </c>
       <c r="T18">
-        <v>0.02075240933327825</v>
+        <v>0.0167988704350715</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.4728331098994</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>15.4728331098994</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.7719676100087</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N19">
-        <v>74.7719676100087</v>
+        <v>12.20766</v>
       </c>
       <c r="O19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q19">
-        <v>1156.934176128468</v>
+        <v>576.9114260725934</v>
       </c>
       <c r="R19">
-        <v>1156.934176128468</v>
+        <v>5192.202834653341</v>
       </c>
       <c r="S19">
-        <v>0.001962322717418591</v>
+        <v>0.000911511060982309</v>
       </c>
       <c r="T19">
-        <v>0.001962322717418591</v>
+        <v>0.0009115110609823091</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.4728331098994</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>15.4728331098994</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>3.84345566615913</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N20">
-        <v>3.84345566615913</v>
+        <v>2.375885</v>
       </c>
       <c r="O20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q20">
-        <v>59.46914808777744</v>
+        <v>112.2799294487628</v>
       </c>
       <c r="R20">
-        <v>59.46914808777744</v>
+        <v>1010.519365038865</v>
       </c>
       <c r="S20">
-        <v>0.0001008680205719998</v>
+        <v>0.0001774005384424167</v>
       </c>
       <c r="T20">
-        <v>0.0001008680205719998</v>
+        <v>0.0001774005384424167</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.4728331098994</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>15.4728331098994</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.02468954053506238</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.404267207475</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N21">
-        <v>71.404267207475</v>
+        <v>248.563462</v>
       </c>
       <c r="O21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q21">
-        <v>1104.826309835923</v>
+        <v>11746.64934409714</v>
       </c>
       <c r="R21">
-        <v>1104.826309835923</v>
+        <v>105719.8440968743</v>
       </c>
       <c r="S21">
-        <v>0.001873940463793543</v>
+        <v>0.01855952287080864</v>
       </c>
       <c r="T21">
-        <v>0.001873940463793543</v>
+        <v>0.01855952287080864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H22">
+        <v>46.721386</v>
+      </c>
+      <c r="I22">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J22">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>821.2295326666666</v>
+      </c>
+      <c r="N22">
+        <v>2463.688598</v>
+      </c>
+      <c r="O22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="P22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="Q22">
+        <v>12789.66066343964</v>
+      </c>
+      <c r="R22">
+        <v>115106.9459709568</v>
+      </c>
+      <c r="S22">
+        <v>0.02020746449814402</v>
+      </c>
+      <c r="T22">
+        <v>0.02020746449814403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H23">
+        <v>46.721386</v>
+      </c>
+      <c r="I23">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J23">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N23">
+        <v>224.983445</v>
+      </c>
+      <c r="O23">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P23">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q23">
+        <v>1167.948708606086</v>
+      </c>
+      <c r="R23">
+        <v>10511.53837745477</v>
+      </c>
+      <c r="S23">
+        <v>0.001845340754995709</v>
+      </c>
+      <c r="T23">
+        <v>0.001845340754995709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H24">
+        <v>46.721386</v>
+      </c>
+      <c r="I24">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J24">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N24">
+        <v>12.20766</v>
+      </c>
+      <c r="O24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q24">
+        <v>63.37319944630666</v>
+      </c>
+      <c r="R24">
+        <v>570.3587950167599</v>
+      </c>
+      <c r="S24">
+        <v>0.0001001286673387498</v>
+      </c>
+      <c r="T24">
+        <v>0.0001001286673387498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H25">
+        <v>46.721386</v>
+      </c>
+      <c r="I25">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J25">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N25">
+        <v>2.375885</v>
+      </c>
+      <c r="O25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q25">
+        <v>12.33384890851222</v>
+      </c>
+      <c r="R25">
+        <v>111.00464017661</v>
+      </c>
+      <c r="S25">
+        <v>1.948728903001276E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.948728903001276E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="H26">
+        <v>46.721386</v>
+      </c>
+      <c r="I26">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="J26">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N26">
+        <v>248.563462</v>
+      </c>
+      <c r="O26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q26">
+        <v>1290.358828177592</v>
+      </c>
+      <c r="R26">
+        <v>11613.22945359833</v>
+      </c>
+      <c r="S26">
+        <v>0.002038746835934649</v>
+      </c>
+      <c r="T26">
+        <v>0.002038746835934649</v>
       </c>
     </row>
   </sheetData>
